--- a/forecast_summary_B083TZ68H1.xlsx
+++ b/forecast_summary_B083TZ68H1.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-2604.890968806513</v>
       </c>
       <c r="D2" t="n">
-        <v>-2489.960667746212</v>
+        <v>-2492.252548341924</v>
       </c>
       <c r="E2" t="n">
         <v>980</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-8540.572787420973</v>
       </c>
       <c r="D3" t="n">
-        <v>-8432.064852534728</v>
+        <v>-8430.287413812983</v>
       </c>
       <c r="E3" t="n">
         <v>534</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-14915.62833698321</v>
       </c>
       <c r="D4" t="n">
-        <v>-14804.95753311787</v>
+        <v>-14803.62097423802</v>
       </c>
       <c r="E4" t="n">
         <v>517</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-17660.83505342294</v>
       </c>
       <c r="D5" t="n">
-        <v>-17556.50983796631</v>
+        <v>-17552.38490858684</v>
       </c>
       <c r="E5" t="n">
         <v>382</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-14178.30595744609</v>
       </c>
       <c r="D6" t="n">
-        <v>-14068.58213437891</v>
+        <v>-14069.71414092905</v>
       </c>
       <c r="E6" t="n">
         <v>364</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-5941.545222611095</v>
       </c>
       <c r="D7" t="n">
-        <v>-5827.791624651776</v>
+        <v>-5828.438205979222</v>
       </c>
       <c r="E7" t="n">
         <v>365</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>2200.475074572231</v>
       </c>
       <c r="D8" t="n">
-        <v>2309.680824032613</v>
+        <v>2307.638891155013</v>
       </c>
       <c r="E8" t="n">
         <v>365</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="C9" t="n">
         <v>5788.076015667988</v>
       </c>
       <c r="D9" t="n">
-        <v>5899.336860667946</v>
+        <v>5905.986271415597</v>
       </c>
       <c r="E9" t="n">
         <v>352</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>4228.612908558356</v>
       </c>
       <c r="D10" t="n">
-        <v>4343.103065500661</v>
+        <v>4346.819492562317</v>
       </c>
       <c r="E10" t="n">
         <v>348</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>758.1570591867746</v>
       </c>
       <c r="D11" t="n">
-        <v>873.3280880750567</v>
+        <v>873.8993195985046</v>
       </c>
       <c r="E11" t="n">
         <v>408</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-899.2563882045731</v>
       </c>
       <c r="D12" t="n">
-        <v>-785.0900686163188</v>
+        <v>-792.5004155482129</v>
       </c>
       <c r="E12" t="n">
         <v>458</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>228.2774289178002</v>
       </c>
       <c r="D13" t="n">
-        <v>345.9600923459479</v>
+        <v>341.8879927555279</v>
       </c>
       <c r="E13" t="n">
         <v>436</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>2224.252218135281</v>
       </c>
       <c r="D14" t="n">
-        <v>2337.048518783392</v>
+        <v>2339.153454658814</v>
       </c>
       <c r="E14" t="n">
         <v>437</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>2854.087141844825</v>
       </c>
       <c r="D15" t="n">
-        <v>2961.944476542962</v>
+        <v>2963.877776445795</v>
       </c>
       <c r="E15" t="n">
         <v>428</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C16" t="n">
         <v>1825.493654759391</v>
       </c>
       <c r="D16" t="n">
-        <v>1935.426021688734</v>
+        <v>1940.352348783328</v>
       </c>
       <c r="E16" t="n">
         <v>416</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>556.769188004008</v>
       </c>
       <c r="D17" t="n">
-        <v>669.2231657792988</v>
+        <v>665.1634203681305</v>
       </c>
       <c r="E17" t="n">
         <v>403</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" t="n">
         <v>252.8128899449666</v>
       </c>
       <c r="D18" t="n">
-        <v>375.207050393903</v>
+        <v>364.655110722547</v>
       </c>
       <c r="E18" t="n">
         <v>387</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>713.5108663821313</v>
       </c>
       <c r="D19" t="n">
-        <v>830.9167110318783</v>
+        <v>832.2348466538539</v>
       </c>
       <c r="E19" t="n">
         <v>387</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>995.5074209280351</v>
       </c>
       <c r="D20" t="n">
-        <v>1108.51708996579</v>
+        <v>1112.364072019833</v>
       </c>
       <c r="E20" t="n">
         <v>419</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C21" t="n">
         <v>737.9917756542939</v>
       </c>
       <c r="D21" t="n">
-        <v>854.9432713515988</v>
+        <v>847.3225499454694</v>
       </c>
       <c r="E21" t="n">
         <v>383</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 EAGLE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20765</t>
+          <t>20767</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>8011</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5799</t>
+          <t>5800</t>
         </is>
       </c>
     </row>
